--- a/output.xlsx
+++ b/output.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +455,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>mlevel</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mlevel</t>
+          <t>checkindate</t>
         </is>
       </c>
     </row>
@@ -476,63 +480,57 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Yoga Class</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>Gold</t>
         </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45672.35416666666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Doe</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Spinning Class</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45673.33333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Doe</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Zumba Class</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45675.34375</v>
       </c>
     </row>
     <row r="5">
@@ -551,188 +549,172 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pilates Class</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Bronze</t>
         </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45675.70833333334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Jane</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Spinning Class</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45676.39583333334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Wilson</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Yoga Class</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Gold</t>
         </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45676.40625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Doe</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kickboxing Class</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45676.45833333334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HIIT Training</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>Bronze</t>
         </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45677.32291666666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Jane</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Yoga Class</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>Silver</t>
         </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45677.33333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Doe</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aqua Aerobic</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Bronze</t>
-        </is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45677.36458333334</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Pilates Class</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>Silver</t>
         </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45677.4375</v>
       </c>
     </row>
     <row r="13">
@@ -751,63 +733,425 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Zumba Class</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>Bronze</t>
         </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45678.32986111111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Doe</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Body Pump Class</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
           <t>Gold</t>
         </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45678.33333333334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Moore</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45678.38541666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45678.41666666666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Wilson</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45678.41666666666</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45678.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Emma</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45678.625</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>7</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Sophia</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Taylor</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Yoga Class</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Gold</t>
         </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45678.72916666666</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45678.75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45679.27083333334</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Clark</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45679.32291666666</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45679.41666666666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Moore</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45679.4375</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Emma</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45679.66666666666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45680.375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Wilson</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45680.39583333334</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45680.54166666666</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45680.66666666666</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45680.79166666666</v>
       </c>
     </row>
   </sheetData>
